--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8440" yWindow="3340" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -54,11 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_1:10,sentinel_1:10,ranger_1:10</t>
+    <t>STR_soldiers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STR_soldiers</t>
+    <t>redDragon_1_5,swordsman_1_10,sentinel_1_10,ranger_1_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,8 +166,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,7 +361,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -440,6 +444,8 @@
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -522,6 +528,8 @@
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -879,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -896,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -913,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -930,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -947,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -964,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -981,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -998,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1015,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1032,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1049,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -1167,7 +1175,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1192,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1209,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1226,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1243,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1260,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1277,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1294,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1311,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1328,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1345,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1362,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -1480,7 +1488,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1505,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1522,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1539,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1556,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1573,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1590,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1607,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1624,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1641,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1658,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1675,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -1793,7 +1801,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1818,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1835,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1852,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1869,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1886,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1903,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1920,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1937,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1954,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1971,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1988,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -2106,7 +2114,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2131,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -2148,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -2165,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -2182,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -2199,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -2216,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -2233,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -2250,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -2267,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -2284,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -2301,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -2418,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2441,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2455,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2469,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2483,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -2497,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -2511,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -2525,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -2539,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -2553,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -2567,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -2581,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="8440" yWindow="3340" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
   </si>
   <si>
     <t>INT_needHonour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_soldiers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon_1_5,swordsman_1_10,sentinel_1_10,ranger_1_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -873,7 +865,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,11 +878,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -903,11 +892,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -920,11 +906,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -937,11 +920,8 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -954,11 +934,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -971,11 +948,8 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -988,11 +962,8 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1005,11 +976,8 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1022,11 +990,8 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1039,11 +1004,8 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1056,23 +1018,20 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:4" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:4" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:4" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1172,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -1186,7 +1145,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,11 +1158,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1216,11 +1172,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1233,11 +1186,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1250,11 +1200,8 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1267,11 +1214,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1284,11 +1228,8 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1301,11 +1242,8 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1318,11 +1256,8 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1335,11 +1270,8 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1352,11 +1284,8 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1369,23 +1298,20 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:4" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:4" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:4" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1485,7 +1411,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -1499,7 +1425,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,11 +1438,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1529,11 +1452,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1546,11 +1466,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1563,11 +1480,8 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1580,11 +1494,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1597,11 +1508,8 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1614,11 +1522,8 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1631,11 +1536,8 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1648,11 +1550,8 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1665,11 +1564,8 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1682,23 +1578,20 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:4" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:4" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:4" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1798,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -1812,7 +1705,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,11 +1718,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1842,11 +1732,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1859,11 +1746,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1876,11 +1760,8 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1893,11 +1774,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1910,11 +1788,8 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1927,11 +1802,8 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1944,11 +1816,8 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1961,11 +1830,8 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1978,11 +1844,8 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1995,23 +1858,20 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:4" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:4" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:4" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -2111,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -2125,7 +1985,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,11 +1998,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2155,11 +2012,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2172,11 +2026,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2189,11 +2040,8 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2206,11 +2054,8 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2223,11 +2068,8 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2240,11 +2082,8 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2257,11 +2096,8 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2274,11 +2110,8 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2291,11 +2124,8 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2308,23 +2138,20 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:4" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:4" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:4" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -2424,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2438,7 +2265,7 @@
     <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,11 +2275,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2462,11 +2286,8 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2476,11 +2297,8 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2490,11 +2308,8 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2504,11 +2319,8 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2518,11 +2330,8 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2532,11 +2341,8 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2546,11 +2352,8 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2560,11 +2363,8 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2574,11 +2374,8 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2588,23 +2385,20 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:3" ht="15">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:3" ht="15">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:3" ht="15">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:3" ht="15">
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15">

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="3340" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1520" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="stoneVillage" sheetId="6" r:id="rId3"/>
     <sheet name="ironVillage" sheetId="7" r:id="rId4"/>
     <sheet name="coinVillage" sheetId="8" r:id="rId5"/>
-    <sheet name="gemVillage" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,29 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INT_production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_dropItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1，item2，item3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item4，item5，item6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item7，item8，item9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,35 +834,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="2"/>
     <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
+    <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -887,151 +866,121 @@
         <v>200</v>
       </c>
       <c r="C2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>77760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>2000</v>
+        <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>166800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>4000</v>
+        <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>255600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>436320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>15000</v>
+        <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>687120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>30000</v>
+        <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>1019520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>60000</v>
+        <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>1445040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>100000</v>
+      <c r="B11" s="2">
+        <v>381850</v>
       </c>
       <c r="C11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:3" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:3" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:3" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:3" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1131,35 +1080,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="2"/>
     <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
+    <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1167,151 +1112,121 @@
         <v>200</v>
       </c>
       <c r="C2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>77760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>2000</v>
+        <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>166800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>4000</v>
+        <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>255600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>436320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>15000</v>
+        <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>687120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>30000</v>
+        <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>1019520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>60000</v>
+        <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>1445040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>100000</v>
+      <c r="B11" s="2">
+        <v>381850</v>
       </c>
       <c r="C11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:3" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:3" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:3" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:3" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1411,35 +1326,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="2"/>
     <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
+    <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1447,151 +1358,121 @@
         <v>200</v>
       </c>
       <c r="C2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>77760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>2000</v>
+        <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>166800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>4000</v>
+        <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>255600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>436320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>15000</v>
+        <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>687120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>30000</v>
+        <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>1019520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>60000</v>
+        <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>1445040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>100000</v>
+      <c r="B11" s="2">
+        <v>381850</v>
       </c>
       <c r="C11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:3" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:3" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:3" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:3" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1691,35 +1572,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="2"/>
     <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
+    <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1727,151 +1604,121 @@
         <v>200</v>
       </c>
       <c r="C2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>77760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>2000</v>
+        <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>166800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>4000</v>
+        <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>255600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>436320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>15000</v>
+        <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>687120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>30000</v>
+        <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>1019520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>60000</v>
+        <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>1445040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>100000</v>
+      <c r="B11" s="2">
+        <v>381850</v>
       </c>
       <c r="C11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:3" ht="15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:3" ht="15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:3" ht="15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:3" ht="15">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -1971,297 +1818,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="2"/>
     <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>400</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8000</v>
-      </c>
-      <c r="C7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>15000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>70000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>60000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>80000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:3" ht="20" customHeight="1">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3" ht="20" customHeight="1">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:3" ht="20" customHeight="1">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:3" ht="20" customHeight="1">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="3:3" ht="20" customHeight="1">
-      <c r="C37" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="2"/>
-    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -2269,210 +1835,220 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="7">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4680</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="7">
+        <v>1250</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14040</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="7">
+        <v>3500</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38880</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="7">
+        <v>9650</v>
+      </c>
+      <c r="C5" s="2">
+        <v>83400</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="7">
+        <v>18450</v>
+      </c>
+      <c r="C6" s="2">
+        <v>127800</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>218160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
+      <c r="B8" s="7">
+        <v>72400</v>
+      </c>
+      <c r="C8" s="2">
+        <v>343560</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
+      <c r="B9" s="7">
+        <v>117550</v>
+      </c>
+      <c r="C9" s="2">
+        <v>509760</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+      <c r="B10" s="7">
+        <v>251700</v>
+      </c>
+      <c r="C10" s="2">
+        <v>722520</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
+      <c r="B11" s="2">
+        <v>381850</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1080000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" ht="20" customHeight="1">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" ht="20" customHeight="1">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="2:2" ht="20" customHeight="1">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="2:2" ht="20" customHeight="1">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:2" ht="20" customHeight="1">
-      <c r="B37" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="3:3" ht="20" customHeight="1">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" ht="20" customHeight="1">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:3" ht="20" customHeight="1">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="3:3" ht="20" customHeight="1">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="3:3" ht="20" customHeight="1">
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
@@ -141,8 +141,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,7 +360,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="193">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -421,6 +445,18 @@
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +541,18 @@
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -837,7 +885,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -863,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" s="4">
-        <v>9360</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -877,7 +925,7 @@
         <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>28080</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -888,7 +936,7 @@
         <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>77760</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -899,7 +947,7 @@
         <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>166800</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -910,7 +958,7 @@
         <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>255600</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -921,7 +969,7 @@
         <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>436320</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -932,7 +980,7 @@
         <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>687120</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -943,7 +991,7 @@
         <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>1019520</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -954,7 +1002,7 @@
         <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>1445040</v>
+        <v>1445000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1083,7 +1131,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1109,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" s="4">
-        <v>9360</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1123,7 +1171,7 @@
         <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>28080</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1134,7 +1182,7 @@
         <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>77760</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1145,7 +1193,7 @@
         <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>166800</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1156,7 +1204,7 @@
         <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>255600</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1167,7 +1215,7 @@
         <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>436320</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1178,7 +1226,7 @@
         <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>687120</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1189,7 +1237,7 @@
         <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>1019520</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1200,7 +1248,7 @@
         <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>1445040</v>
+        <v>1445000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1329,7 +1377,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1355,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" s="4">
-        <v>9360</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1369,7 +1417,7 @@
         <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>28080</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1380,7 +1428,7 @@
         <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>77760</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1391,7 +1439,7 @@
         <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>166800</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1402,7 +1450,7 @@
         <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>255600</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1413,7 +1461,7 @@
         <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>436320</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1424,7 +1472,7 @@
         <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>687120</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1435,7 +1483,7 @@
         <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>1019520</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1446,7 +1494,7 @@
         <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>1445040</v>
+        <v>1445000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1575,7 +1623,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1601,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" s="4">
-        <v>9360</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1615,7 +1663,7 @@
         <v>1250</v>
       </c>
       <c r="C3" s="4">
-        <v>28080</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1626,7 +1674,7 @@
         <v>3500</v>
       </c>
       <c r="C4" s="4">
-        <v>77760</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1637,7 +1685,7 @@
         <v>9650</v>
       </c>
       <c r="C5" s="4">
-        <v>166800</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1648,7 +1696,7 @@
         <v>18450</v>
       </c>
       <c r="C6" s="4">
-        <v>255600</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1659,7 +1707,7 @@
         <v>32000</v>
       </c>
       <c r="C7" s="4">
-        <v>436320</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1670,7 +1718,7 @@
         <v>72400</v>
       </c>
       <c r="C8" s="4">
-        <v>687120</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1681,7 +1729,7 @@
         <v>117550</v>
       </c>
       <c r="C9" s="4">
-        <v>1019520</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1692,7 +1740,7 @@
         <v>251700</v>
       </c>
       <c r="C10" s="4">
-        <v>1445040</v>
+        <v>1445000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1821,7 +1869,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1847,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4680</v>
+        <v>400</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1860,8 +1908,8 @@
       <c r="B3" s="7">
         <v>1250</v>
       </c>
-      <c r="C3" s="2">
-        <v>14040</v>
+      <c r="C3" s="4">
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1871,8 +1919,8 @@
       <c r="B4" s="7">
         <v>3500</v>
       </c>
-      <c r="C4" s="2">
-        <v>38880</v>
+      <c r="C4" s="4">
+        <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1882,8 +1930,8 @@
       <c r="B5" s="7">
         <v>9650</v>
       </c>
-      <c r="C5" s="2">
-        <v>83400</v>
+      <c r="C5" s="4">
+        <v>160000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1893,8 +1941,8 @@
       <c r="B6" s="7">
         <v>18450</v>
       </c>
-      <c r="C6" s="2">
-        <v>127800</v>
+      <c r="C6" s="4">
+        <v>240000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1904,8 +1952,8 @@
       <c r="B7" s="7">
         <v>32000</v>
       </c>
-      <c r="C7" s="2">
-        <v>218160</v>
+      <c r="C7" s="4">
+        <v>320000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1915,8 +1963,8 @@
       <c r="B8" s="7">
         <v>72400</v>
       </c>
-      <c r="C8" s="2">
-        <v>343560</v>
+      <c r="C8" s="4">
+        <v>400000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1926,8 +1974,8 @@
       <c r="B9" s="7">
         <v>117550</v>
       </c>
-      <c r="C9" s="2">
-        <v>509760</v>
+      <c r="C9" s="4">
+        <v>510000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1937,8 +1985,8 @@
       <c r="B10" s="7">
         <v>251700</v>
       </c>
-      <c r="C10" s="2">
-        <v>722520</v>
+      <c r="C10" s="4">
+        <v>722500</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1948,65 +1996,24 @@
       <c r="B11" s="2">
         <v>381850</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>1080000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
-      <c r="C26" s="4"/>
-    </row>
+    <row r="13" spans="1:3" ht="15"/>
+    <row r="14" spans="1:3" ht="15"/>
+    <row r="15" spans="1:3" ht="15"/>
+    <row r="16" spans="1:3" ht="15"/>
+    <row r="17" spans="1:3" ht="15"/>
+    <row r="18" spans="1:3" ht="15"/>
+    <row r="19" spans="1:3" ht="15"/>
+    <row r="20" spans="1:3" ht="15"/>
+    <row r="21" spans="1:3" ht="15"/>
+    <row r="22" spans="1:3" ht="15"/>
+    <row r="23" spans="1:3" ht="15"/>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-23520" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -141,8 +141,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,7 +368,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="201">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -457,6 +465,10 @@
     <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -553,6 +565,10 @@
     <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -911,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -922,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>1250</v>
+        <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>160000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -933,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>240000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -944,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>9650</v>
+        <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>320000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -955,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>18450</v>
+        <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>480000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -966,10 +982,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>32000</v>
+        <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>640000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -977,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>72400</v>
+        <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>800000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -988,21 +1004,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>117550</v>
+        <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>1020000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>251700</v>
+      <c r="B10" s="2">
+        <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>1445000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1010,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>381850</v>
+        <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>2160000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1157,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1168,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>1250</v>
+        <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>160000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1179,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>240000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1190,10 +1206,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>9650</v>
+        <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>320000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1201,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>18450</v>
+        <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>480000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1212,10 +1228,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>32000</v>
+        <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>640000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1223,10 +1239,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>72400</v>
+        <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>800000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1234,21 +1250,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>117550</v>
+        <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>1020000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>251700</v>
+      <c r="B10" s="2">
+        <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>1445000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1256,10 +1272,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>381850</v>
+        <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>2160000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1403,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1414,10 +1430,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>1250</v>
+        <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>160000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1425,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>240000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1436,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>9650</v>
+        <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>320000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1447,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>18450</v>
+        <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>480000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1458,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>32000</v>
+        <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>640000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1469,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>72400</v>
+        <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>800000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1480,21 +1496,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>117550</v>
+        <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>1020000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>251700</v>
+      <c r="B10" s="2">
+        <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>1445000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1502,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>381850</v>
+        <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>2160000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1623,7 +1639,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1649,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1660,10 +1676,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>1250</v>
+        <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>160000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1671,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>240000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1682,10 +1698,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>9650</v>
+        <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>320000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1693,10 +1709,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>18450</v>
+        <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>480000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1704,10 +1720,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>32000</v>
+        <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>640000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1715,10 +1731,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>72400</v>
+        <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>800000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1726,21 +1742,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>117550</v>
+        <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>1020000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>251700</v>
+      <c r="B10" s="2">
+        <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>1445000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1748,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>381850</v>
+        <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>2160000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1868,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E18:E19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1895,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>400</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>40000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1906,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>1250</v>
+        <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>80000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1917,10 +1933,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>120000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1928,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>9650</v>
+        <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>160000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1939,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>18450</v>
+        <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>240000</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1950,10 +1966,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>32000</v>
+        <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>320000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1961,10 +1977,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>72400</v>
+        <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>400000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1972,21 +1988,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>117550</v>
+        <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>510000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>251700</v>
+      <c r="B10" s="2">
+        <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>722500</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1994,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>381850</v>
+        <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>1080000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="-23520" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -141,8 +141,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -368,7 +380,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="213">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -469,6 +481,12 @@
     <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -569,6 +587,12 @@
     <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -941,7 +965,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>264000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -952,7 +976,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>288000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -963,7 +987,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>312000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -974,7 +998,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>336000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -985,7 +1009,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -996,7 +1020,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>384000</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1007,7 +1031,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>408000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1018,7 +1042,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>432000</v>
+        <v>624000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1029,7 +1053,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>480000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1147,7 +1171,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1187,7 +1211,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>264000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1198,7 +1222,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>288000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1209,7 +1233,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>312000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1220,7 +1244,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>336000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1231,7 +1255,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1242,7 +1266,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>384000</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1253,7 +1277,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>408000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1264,7 +1288,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>432000</v>
+        <v>624000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1275,7 +1299,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>480000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1393,7 +1417,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1433,7 +1457,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>264000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1444,7 +1468,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>288000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1455,7 +1479,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>312000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1466,7 +1490,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>336000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1477,7 +1501,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1488,7 +1512,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>384000</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1499,7 +1523,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>408000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1510,7 +1534,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>432000</v>
+        <v>624000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1521,7 +1545,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>480000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1639,7 +1663,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1679,7 +1703,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>264000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1690,7 +1714,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>288000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1701,7 +1725,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>312000</v>
+        <v>384000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1712,7 +1736,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>336000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1723,7 +1747,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1734,7 +1758,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>384000</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1745,7 +1769,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>408000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1756,7 +1780,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>432000</v>
+        <v>624000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1767,7 +1791,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>480000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1884,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1925,7 +1949,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>132000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1936,7 +1960,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>144000</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1947,7 +1971,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>156000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1958,7 +1982,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>168000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1969,7 +1993,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>180000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1980,7 +2004,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>192000</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1991,7 +2015,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>204000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -2002,7 +2026,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>216000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -2013,7 +2037,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>240000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -141,8 +141,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="213">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,7 +408,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="213">
+  <cellStyles count="241">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -487,6 +515,20 @@
     <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -593,6 +635,20 @@
     <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,7 +981,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -954,7 +1010,7 @@
         <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>240000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -965,7 +1021,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>288000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -976,7 +1032,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>336000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -987,7 +1043,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>384000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -998,7 +1054,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>432000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1009,7 +1065,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>480000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1020,7 +1076,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>528000</v>
+        <v>396000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1031,7 +1087,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>576000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1042,7 +1098,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>624000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1053,7 +1109,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>680000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1171,7 +1227,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1200,7 +1256,7 @@
         <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>240000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1211,7 +1267,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>288000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1222,7 +1278,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>336000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1233,7 +1289,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>384000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1244,7 +1300,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>432000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1255,7 +1311,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>480000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1266,7 +1322,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>528000</v>
+        <v>396000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1277,7 +1333,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>576000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1288,7 +1344,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>624000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1299,7 +1355,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>680000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1446,7 +1502,7 @@
         <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>240000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1457,7 +1513,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>288000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1468,7 +1524,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>336000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1479,7 +1535,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>384000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1490,7 +1546,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>432000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1501,7 +1557,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>480000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1512,7 +1568,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>528000</v>
+        <v>396000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1523,7 +1579,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>576000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1534,7 +1590,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>624000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1545,7 +1601,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>680000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
@@ -1663,7 +1719,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1691,8 +1747,8 @@
       <c r="B2" s="7">
         <v>6900</v>
       </c>
-      <c r="C2" s="4">
-        <v>240000</v>
+      <c r="C2" s="2">
+        <v>180000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1702,8 +1758,8 @@
       <c r="B3" s="7">
         <v>13800</v>
       </c>
-      <c r="C3" s="4">
-        <v>288000</v>
+      <c r="C3" s="2">
+        <v>216000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1713,8 +1769,8 @@
       <c r="B4" s="7">
         <v>27600</v>
       </c>
-      <c r="C4" s="4">
-        <v>336000</v>
+      <c r="C4" s="2">
+        <v>252000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1724,8 +1780,8 @@
       <c r="B5" s="7">
         <v>55200</v>
       </c>
-      <c r="C5" s="4">
-        <v>384000</v>
+      <c r="C5" s="2">
+        <v>288000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1735,8 +1791,8 @@
       <c r="B6" s="7">
         <v>110400</v>
       </c>
-      <c r="C6" s="4">
-        <v>432000</v>
+      <c r="C6" s="2">
+        <v>324000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1746,8 +1802,8 @@
       <c r="B7" s="7">
         <v>220900</v>
       </c>
-      <c r="C7" s="4">
-        <v>480000</v>
+      <c r="C7" s="2">
+        <v>360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1757,8 +1813,8 @@
       <c r="B8" s="7">
         <v>510900</v>
       </c>
-      <c r="C8" s="4">
-        <v>528000</v>
+      <c r="C8" s="2">
+        <v>396000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1768,8 +1824,8 @@
       <c r="B9" s="7">
         <v>961600</v>
       </c>
-      <c r="C9" s="4">
-        <v>576000</v>
+      <c r="C9" s="2">
+        <v>432000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1779,8 +1835,8 @@
       <c r="B10" s="2">
         <v>1903000</v>
       </c>
-      <c r="C10" s="4">
-        <v>624000</v>
+      <c r="C10" s="2">
+        <v>468000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1790,13 +1846,11 @@
       <c r="B11" s="2">
         <v>3514000</v>
       </c>
-      <c r="C11" s="4">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
-    </row>
+      <c r="C11" s="2">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15"/>
     <row r="13" spans="1:3" ht="15">
       <c r="C13" s="4"/>
     </row>
@@ -1909,7 +1963,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1938,7 +1992,7 @@
         <v>6900</v>
       </c>
       <c r="C2" s="4">
-        <v>120000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1949,7 +2003,7 @@
         <v>13800</v>
       </c>
       <c r="C3" s="4">
-        <v>144000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1960,7 +2014,7 @@
         <v>27600</v>
       </c>
       <c r="C4" s="4">
-        <v>168000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1971,7 +2025,7 @@
         <v>55200</v>
       </c>
       <c r="C5" s="4">
-        <v>192000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1982,7 +2036,7 @@
         <v>110400</v>
       </c>
       <c r="C6" s="4">
-        <v>216000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1993,7 +2047,7 @@
         <v>220900</v>
       </c>
       <c r="C7" s="4">
-        <v>240000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -2004,7 +2058,7 @@
         <v>510900</v>
       </c>
       <c r="C8" s="4">
-        <v>264000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -2015,7 +2069,7 @@
         <v>961600</v>
       </c>
       <c r="C9" s="4">
-        <v>288000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -2026,7 +2080,7 @@
         <v>1903000</v>
       </c>
       <c r="C10" s="4">
-        <v>312000</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -2037,7 +2091,7 @@
         <v>3514000</v>
       </c>
       <c r="C11" s="4">
-        <v>340000</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">

--- a/datas/shared/AllianceVillage.xlsx
+++ b/datas/shared/AllianceVillage.xlsx
@@ -141,8 +141,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -408,7 +422,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="255">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -529,6 +543,13 @@
     <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -649,6 +670,13 @@
     <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -981,7 +1009,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1007,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>180000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1018,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>216000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1029,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>252000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1040,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>288000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1051,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1062,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1073,21 +1101,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>396000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>961600</v>
+      <c r="B9" s="2">
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>432000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -1095,10 +1123,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1903000</v>
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>468000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -1106,47 +1134,124 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3514000</v>
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>510000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15">
@@ -1157,7 +1262,6 @@
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="5"/>
@@ -1227,7 +1331,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1253,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>180000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1264,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>216000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1275,10 +1379,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>252000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1286,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>288000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1297,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1308,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1319,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>396000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1330,65 +1434,143 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>432000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>468000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
+      <c r="B11" s="7">
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>510000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
@@ -1473,7 +1655,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1499,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>180000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1510,10 +1692,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>216000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1521,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>252000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1532,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>288000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1543,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>324000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1554,10 +1736,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>360000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1565,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>396000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1576,65 +1758,143 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>432000</v>
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>468000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
+      <c r="B11" s="7">
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>510000</v>
+        <v>732000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
@@ -1719,7 +1979,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1745,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
-      </c>
-      <c r="C2" s="2">
-        <v>180000</v>
+        <v>1190</v>
+      </c>
+      <c r="C2" s="4">
+        <v>84000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -1756,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>216000</v>
+        <v>3213</v>
+      </c>
+      <c r="C3" s="4">
+        <v>108000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1767,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
-      </c>
-      <c r="C4" s="2">
-        <v>252000</v>
+        <v>7140</v>
+      </c>
+      <c r="C4" s="4">
+        <v>144000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -1778,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
-      </c>
-      <c r="C5" s="2">
-        <v>288000</v>
+        <v>10710</v>
+      </c>
+      <c r="C5" s="4">
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -1789,10 +2049,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>324000</v>
+        <v>15708</v>
+      </c>
+      <c r="C6" s="4">
+        <v>252000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1800,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
-      </c>
-      <c r="C7" s="2">
-        <v>360000</v>
+        <v>26656</v>
+      </c>
+      <c r="C7" s="4">
+        <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -1811,10 +2071,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
-      </c>
-      <c r="C8" s="2">
-        <v>396000</v>
+        <v>44030</v>
+      </c>
+      <c r="C8" s="4">
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -1822,63 +2082,143 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
-      </c>
-      <c r="C9" s="2">
-        <v>432000</v>
+        <v>72828</v>
+      </c>
+      <c r="C9" s="4">
+        <v>504000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>468000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
+      </c>
+      <c r="C10" s="4">
+        <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15"/>
+      <c r="B11" s="7">
+        <v>171360</v>
+      </c>
+      <c r="C11" s="4">
+        <v>732000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="4">
+        <v>864000</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" ht="15">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1164000</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1332000</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1512000</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1704000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2820000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="5"/>
@@ -1989,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6900</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4">
-        <v>90000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -2000,10 +2340,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>13800</v>
+        <v>3213</v>
       </c>
       <c r="C3" s="4">
-        <v>108000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -2011,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>27600</v>
+        <v>7140</v>
       </c>
       <c r="C4" s="4">
-        <v>126000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -2022,10 +2362,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>55200</v>
+        <v>10710</v>
       </c>
       <c r="C5" s="4">
-        <v>144000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -2033,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>110400</v>
+        <v>15708</v>
       </c>
       <c r="C6" s="4">
-        <v>162000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -2044,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>220900</v>
+        <v>26656</v>
       </c>
       <c r="C7" s="4">
-        <v>180000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -2055,10 +2395,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>510900</v>
+        <v>44030</v>
       </c>
       <c r="C8" s="4">
-        <v>198000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
@@ -2066,46 +2406,144 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>961600</v>
+        <v>72828</v>
       </c>
       <c r="C9" s="4">
-        <v>216000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1903000</v>
+      <c r="B10" s="7">
+        <v>112455</v>
       </c>
       <c r="C10" s="4">
-        <v>234000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>3514000</v>
+      <c r="B11" s="7">
+        <v>171360</v>
       </c>
       <c r="C11" s="4">
-        <v>255000</v>
+        <v>366000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="15"/>
-    <row r="14" spans="1:3" ht="15"/>
-    <row r="15" spans="1:3" ht="15"/>
-    <row r="16" spans="1:3" ht="15"/>
-    <row r="17" spans="1:3" ht="15"/>
-    <row r="18" spans="1:3" ht="15"/>
-    <row r="19" spans="1:3" ht="15"/>
-    <row r="20" spans="1:3" ht="15"/>
-    <row r="21" spans="1:3" ht="15"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>249543</v>
+      </c>
+      <c r="C12" s="2">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>374850</v>
+      </c>
+      <c r="C13" s="2">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>539308</v>
+      </c>
+      <c r="C14" s="2">
+        <v>582000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>788256</v>
+      </c>
+      <c r="C15" s="2">
+        <v>666000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1113840</v>
+      </c>
+      <c r="C16" s="2">
+        <v>756000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1599360</v>
+      </c>
+      <c r="C17" s="2">
+        <v>852000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2225895</v>
+      </c>
+      <c r="C18" s="2">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2817920</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3236800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4284000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1410000</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="15"/>
     <row r="23" spans="1:3" ht="15"/>
     <row r="27" spans="1:3" ht="20" customHeight="1">
